--- a/Chap04/Chap04-Dataset.xlsx
+++ b/Chap04/Chap04-Dataset.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="336" windowWidth="22644" windowHeight="9228" activeTab="4"/>
+    <workbookView xWindow="384" yWindow="336" windowWidth="22644" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="domain-CC-2" sheetId="1" r:id="rId1"/>
-    <sheet name="domain-CD-2" sheetId="2" r:id="rId2"/>
+    <sheet name="domain-DC-2" sheetId="2" r:id="rId2"/>
     <sheet name="domain-CC-M" sheetId="3" r:id="rId3"/>
     <sheet name="domain-CU-M" sheetId="4" r:id="rId4"/>
     <sheet name="inter-chain-domain" sheetId="5" r:id="rId5"/>
@@ -50814,7 +50814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D513"/>
     </sheetView>
   </sheetViews>
@@ -83385,8 +83385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
